--- a/WronaBartlomiejFinanses.xlsx
+++ b/WronaBartlomiejFinanses.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A116-27\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A116-26\Desktop\BusinessDataProcessing-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0AEF1D-7B20-42EB-AEB7-C5800F3451D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD8721-6D02-4226-A26F-38F593032C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operations" sheetId="2" r:id="rId1"/>
     <sheet name="dictionary" sheetId="3" r:id="rId2"/>
+    <sheet name="1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="41">
   <si>
     <t>Bank</t>
   </si>
@@ -139,9 +162,6 @@
     <t>Income</t>
   </si>
   <si>
-    <t>Expenese</t>
-  </si>
-  <si>
     <t>Millenium</t>
   </si>
   <si>
@@ -150,15 +170,29 @@
   <si>
     <t>Fixed term deposit</t>
   </si>
+  <si>
+    <t>Opening balance</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Closing balance</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +214,24 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +242,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
@@ -241,11 +296,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -254,43 +311,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="27">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="medium">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -338,18 +414,18 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
           <color theme="1"/>
+        </top>
+        <bottom style="double">
+          <color rgb="FF3F3F3F"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
           <color theme="1"/>
-        </top>
-        <bottom style="double">
-          <color rgb="FF3F3F3F"/>
         </bottom>
       </border>
     </dxf>
@@ -389,6 +465,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -407,25 +484,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -500,6 +559,42 @@
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -514,18 +609,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E4233D9-DC80-44ED-B85D-1983D09ED6C2}" name="Operations" displayName="Operations" ref="A1:G207" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E4233D9-DC80-44ED-B85D-1983D09ED6C2}" name="Operations" displayName="Operations" ref="A1:G207" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:G207" xr:uid="{8E4233D9-DC80-44ED-B85D-1983D09ED6C2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{38380A64-E465-44AB-8C34-2AC34E96CD2B}" name="Amount" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{B580659D-1C7B-4CAA-A6D4-647CE53E7953}" name="Bank" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C89404D5-CF58-4878-825E-193628712EF3}" name="Product" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{AF6CC09C-8ACE-4B8A-BC3B-33633E6F8531}" name="Category" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{9C782B3C-D3F7-4FBF-A0A3-76C154EA2438}" name="Type" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{38380A64-E465-44AB-8C34-2AC34E96CD2B}" name="Amount" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{B580659D-1C7B-4CAA-A6D4-647CE53E7953}" name="Bank" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{C89404D5-CF58-4878-825E-193628712EF3}" name="Product" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{AF6CC09C-8ACE-4B8A-BC3B-33633E6F8531}" name="Category" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{9C782B3C-D3F7-4FBF-A0A3-76C154EA2438}" name="Type" dataDxfId="20">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F5B3003D-61EA-4882-B378-A29D4CB1C18F}" name="Date" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{9EAEB358-C680-4829-8FD2-D8A058B507BA}" name="Month" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{F5B3003D-61EA-4882-B378-A29D4CB1C18F}" name="Date" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{9EAEB358-C680-4829-8FD2-D8A058B507BA}" name="Month" dataDxfId="18">
       <calculatedColumnFormula>MONTH(Operations[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -534,22 +629,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{01AD5B0E-9161-43EA-90F0-1900A2281B06}" name="Categories" displayName="Categories" ref="A1:B17" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5" headerRowCellStyle="40% - Accent2" dataCellStyle="40% - Accent2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{01AD5B0E-9161-43EA-90F0-1900A2281B06}" name="Categories" displayName="Categories" ref="A1:B17" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15" headerRowCellStyle="40% - Accent2" dataCellStyle="40% - Accent2">
   <autoFilter ref="A1:B17" xr:uid="{01AD5B0E-9161-43EA-90F0-1900A2281B06}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">
     <sortCondition ref="B2:B17"/>
     <sortCondition ref="A2:A17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8A718C89-8A61-4768-B873-22E88930ED0A}" name="Category" dataDxfId="4" dataCellStyle="40% - Accent2"/>
-    <tableColumn id="2" xr3:uid="{31784A8F-9742-4146-8009-7EA801951DFE}" name="Type" dataDxfId="3" dataCellStyle="40% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{8A718C89-8A61-4768-B873-22E88930ED0A}" name="Category" dataDxfId="14" dataCellStyle="40% - Accent2"/>
+    <tableColumn id="2" xr3:uid="{31784A8F-9742-4146-8009-7EA801951DFE}" name="Type" dataDxfId="13" dataCellStyle="40% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{224932A1-3A71-4AC2-9612-65BAAA7633B5}" name="Products" displayName="Products" ref="D1:E8" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="2" headerRowCellStyle="40% - Accent2" dataCellStyle="40% - Accent2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{224932A1-3A71-4AC2-9612-65BAAA7633B5}" name="Products" displayName="Products" ref="D1:E8" totalsRowShown="0" headerRowBorderDxfId="12" tableBorderDxfId="11" headerRowCellStyle="40% - Accent2" dataCellStyle="40% - Accent2">
   <autoFilter ref="D1:E8" xr:uid="{224932A1-3A71-4AC2-9612-65BAAA7633B5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E8">
     <sortCondition ref="D2:D8"/>
@@ -560,6 +655,65 @@
     <tableColumn id="2" xr3:uid="{28413B73-87AA-4291-944D-39D9CFE7BC7F}" name="Product" dataCellStyle="40% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{147A7DA6-3EBF-483C-BC80-C2FF725E7D48}" name="Table4" displayName="Table4" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{147A7DA6-3EBF-483C-BC80-C2FF725E7D48}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EFAF931E-5D8F-41D8-85CA-4759F8594A14}" name="Bank" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{62999EB6-75EF-42F9-832D-7E8E086462EB}" name="Product"/>
+    <tableColumn id="3" xr3:uid="{69275FFD-D3C7-48C0-B2AB-B9601829612D}" name="Opening balance" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUBTOTAL(,Table4[[#This Row],[Bank]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6E683B16-0217-4902-A64F-9485C5E70609}" name="Operations" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="2">
+      <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Bank],Table4[[#This Row],[Bank]],Operations[Product],Table4[[#This Row],[Product]],Operations[Month],#REF!)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EF1D96DD-0F1C-4868-A294-B3E6655A242C}" name="Closing balance" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUM(Table4[[#This Row],[Opening balance]],Table4[[#This Row],[Operations]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DE846615-5949-45F0-B5F5-974320D7030C}" name="Table5" displayName="Table5" ref="A13:B17" totalsRowCount="1">
+  <autoFilter ref="A13:B16" xr:uid="{DE846615-5949-45F0-B5F5-974320D7030C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BEAB39E9-FCFB-4688-95C3-A959883B5A80}" name="Type" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{07221A91-CFFB-47E1-89AE-1F0D01502AF4}" name="Total" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Type],Table5[[#This Row],[Type]],Operations[Month],$B10)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A68446F0-6CA7-492E-86FB-659619D753D2}" name="Table6" displayName="Table6" ref="G1:H8" totalsRowCount="1">
+  <autoFilter ref="G1:H7" xr:uid="{A68446F0-6CA7-492E-86FB-659619D753D2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8D68A5C3-F527-4B0F-A57A-FCE5397818EA}" name="Category" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{8AD8843F-2168-4B8F-A3ED-C2A4234D0FB9}" name="Total" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="0">
+      <calculatedColumnFormula>SUBTOTAL(9,Table6[[#This Row],[Category]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{32890461-D68D-4140-9398-065DB20B50C4}" name="Table7" displayName="Table7" ref="J1:K11" totalsRowCount="1">
+  <autoFilter ref="J1:K10" xr:uid="{32890461-D68D-4140-9398-065DB20B50C4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C193C300-C1D8-4BC6-AB4B-7BCF62897F7E}" name="Category" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{2D315A4A-1973-4D8A-A6B4-607974F76146}" name="Total" totalsRowFunction="sum" dataDxfId="9">
+      <calculatedColumnFormula>SUBTOTAL(9,Table7[#This Row])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -862,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AD4FC0-ED61-44FB-852D-53E3AF5E902C}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,6 +1029,7 @@
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,7 +1210,7 @@
         <v>500</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1083,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
@@ -1105,7 +1260,7 @@
         <v>250</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1130,7 +1285,7 @@
         <v>-25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -1140,7 +1295,7 @@
       </c>
       <c r="E11" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F11" s="3">
         <v>45310</v>
@@ -1240,7 +1395,7 @@
       </c>
       <c r="E15" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F15" s="3">
         <v>45314</v>
@@ -1540,7 +1695,7 @@
       </c>
       <c r="E27" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F27" s="3">
         <v>45335</v>
@@ -1815,7 +1970,7 @@
       </c>
       <c r="E38" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F38" s="3">
         <v>45346</v>
@@ -2090,7 +2245,7 @@
       </c>
       <c r="E49" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F49" s="3">
         <v>45355</v>
@@ -2740,7 +2895,7 @@
       </c>
       <c r="E75" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F75" s="3">
         <v>45401</v>
@@ -2790,7 +2945,7 @@
       </c>
       <c r="E77" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F77" s="3">
         <v>45405</v>
@@ -3165,7 +3320,7 @@
       </c>
       <c r="E92" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F92" s="3">
         <v>45442</v>
@@ -3515,7 +3670,7 @@
       </c>
       <c r="E106" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F106" s="3">
         <v>45473</v>
@@ -3565,7 +3720,7 @@
       </c>
       <c r="E108" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F108" s="3">
         <v>45480</v>
@@ -3765,7 +3920,7 @@
       </c>
       <c r="E116" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F116" s="3">
         <v>45494</v>
@@ -4090,7 +4245,7 @@
       </c>
       <c r="E129" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F129" s="3">
         <v>45518</v>
@@ -4240,7 +4395,7 @@
       </c>
       <c r="E135" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F135" s="3">
         <v>45526</v>
@@ -4515,7 +4670,7 @@
       </c>
       <c r="E146" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F146" s="3">
         <v>45546</v>
@@ -4740,7 +4895,7 @@
       </c>
       <c r="E155" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F155" s="3">
         <v>45576</v>
@@ -4965,7 +5120,7 @@
       </c>
       <c r="E164" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F164" s="3">
         <v>45610</v>
@@ -5315,7 +5470,7 @@
       </c>
       <c r="E178" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F178" s="3">
         <v>45621</v>
@@ -5390,7 +5545,7 @@
       </c>
       <c r="E181" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F181" s="3">
         <v>45623</v>
@@ -5715,7 +5870,7 @@
       </c>
       <c r="E194" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F194" s="3">
         <v>45629</v>
@@ -5740,7 +5895,7 @@
       </c>
       <c r="E195" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F195" s="3">
         <v>45629</v>
@@ -5865,7 +6020,7 @@
       </c>
       <c r="E200" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F200" s="3">
         <v>45640</v>
@@ -5965,7 +6120,7 @@
       </c>
       <c r="E204" s="1" t="str">
         <f>_xlfn.XLOOKUP(Operations[[#This Row],[Category]],Categories[Category],Categories[Type],"",0)</f>
-        <v>Expenese</v>
+        <v>Expense</v>
       </c>
       <c r="F204" s="3">
         <v>45649</v>
@@ -6055,6 +6210,30 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40875611-34EC-4ADB-9AEE-829D24700610}">
+          <x14:formula1>
+            <xm:f>dictionary!$A$2:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D207</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45A64E18-67B9-4730-AD07-5C751349BDE3}">
+          <x14:formula1>
+            <xm:f>dictionary!$G$1:$I$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B207</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1315B99B-2725-40F4-8C36-A770A97F55EC}">
+          <x14:formula1>
+            <xm:f>CHOOSE(MATCH(B2,dictionary!$G$1:$I$1,0),dictionary!$G$1:$G$3,dictionary!$H$1:$H$4,I1:I3)</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6063,7 +6242,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6076,7 +6255,7 @@
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -6089,13 +6268,13 @@
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6104,7 +6283,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
@@ -6112,13 +6291,13 @@
       <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6135,13 +6314,13 @@
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6158,8 +6337,8 @@
       <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
+      <c r="H4" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6291,10 +6470,367 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{41BABC28-8FEF-4919-9D3A-29CAD0E7B0C4}">
+      <formula1>"Expense, Income, Transfer"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A13FEEC-FE1A-493A-A080-19E4A691944A}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9">
+        <v>100</v>
+      </c>
+      <c r="D2" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Bank],Table4[[#This Row],[Bank]],Operations[Product],Table4[[#This Row],[Product]],Operations[Month],$B11)</f>
+        <v>-35</v>
+      </c>
+      <c r="E2" s="9">
+        <f ca="1">SUM(Table4[[#This Row],[Opening balance]],Table4[[#This Row],[Operations]])</f>
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Bank],Table4[[#This Row],[Bank]],Operations[Product],Table4[[#This Row],[Product]],Operations[Month],$B11)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="9">
+        <f ca="1">SUM(Table4[[#This Row],[Opening balance]],Table4[[#This Row],[Operations]])</f>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>600</v>
+      </c>
+      <c r="D4" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Bank],Table4[[#This Row],[Bank]],Operations[Product],Table4[[#This Row],[Product]],Operations[Month],$B11)</f>
+        <v>600</v>
+      </c>
+      <c r="E4" s="9">
+        <f ca="1">SUM(Table4[[#This Row],[Opening balance]],Table4[[#This Row],[Operations]])</f>
+        <v>1200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Bank],Table4[[#This Row],[Bank]],Operations[Product],Table4[[#This Row],[Product]],Operations[Month],$B11)</f>
+        <v>-150</v>
+      </c>
+      <c r="E5" s="9">
+        <f ca="1">SUM(Table4[[#This Row],[Opening balance]],Table4[[#This Row],[Operations]])</f>
+        <v>-150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Bank],Table4[[#This Row],[Bank]],Operations[Product],Table4[[#This Row],[Product]],Operations[Month],$B11)</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="9">
+        <f ca="1">SUM(Table4[[#This Row],[Opening balance]],Table4[[#This Row],[Operations]])</f>
+        <v>2100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9">
+        <v>200</v>
+      </c>
+      <c r="D7" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Bank],Table4[[#This Row],[Bank]],Operations[Product],Table4[[#This Row],[Product]],Operations[Month],$B11)</f>
+        <v>-50</v>
+      </c>
+      <c r="E7" s="9">
+        <f ca="1">SUM(Table4[[#This Row],[Opening balance]],Table4[[#This Row],[Operations]])</f>
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Bank],Table4[[#This Row],[Bank]],Operations[Product],Table4[[#This Row],[Product]],Operations[Month],$B11)</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="9">
+        <f ca="1">SUM(Table4[[#This Row],[Opening balance]],Table4[[#This Row],[Operations]])</f>
+        <v>180</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUBTOTAL(109,Table6[Total])</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="9">
+        <f>SUBTOTAL(109,Table4[Opening balance])</f>
+        <v>2940.5</v>
+      </c>
+      <c r="D9" s="9">
+        <f ca="1">SUBTOTAL(109,Table4[Operations])</f>
+        <v>620.5</v>
+      </c>
+      <c r="E9" s="9">
+        <f ca="1">SUBTOTAL(109,Table4[Closing balance])</f>
+        <v>3561</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="str" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">_xlfn.TEXTAFTER(CELL("filename", A1),"]")</f>
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="9">
+        <f>SUBTOTAL(109,Table7[Total])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Type],Table5[[#This Row],[Type]],Operations[Month],$B11)</f>
+        <v>5655.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Type],Table5[[#This Row],[Type]],Operations[Month],$B11)</f>
+        <v>-4810</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="9">
+        <f ca="1">SUMIFS(Operations[Amount],Operations[Type],Table5[[#This Row],[Type]],Operations[Month],$B11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="9">
+        <f ca="1">SUBTOTAL(109,Table5[Total])</f>
+        <v>845.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>